--- a/BackTest/2020-01-22 BackTest IPX.xlsx
+++ b/BackTest/2020-01-22 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>365678.636118666</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>385305.2970186661</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>399431.705918666</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>403692.8264186661</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>417313.697518666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>420541.870218666</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>423387.0936186661</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>438930.452318666</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>418762.312318666</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>444601.524418666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>448145.643518666</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>519021.323283796</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>516384.338483796</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>516384.338483796</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>522065.237483796</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>519887.915683796</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>494237.338283796</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>223390.7983284672</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>223390.7983284672</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>251960.2164010482</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>252659.9961010482</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>270890.5749010482</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>268736.2730010482</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>272235.1715010482</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>299140.1271010482</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>318291.6033010482</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>311265.7349010482</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>322043.3698462332</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>354696.1263010481</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>399162.2091010481</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>401337.2476010481</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>380136.4797010482</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>381066.2594010482</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>383740.3499010482</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>304871.6827010482</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>309670.7797010482</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>281070.3887010482</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>274628.3053010482</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>271774.5803010482</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>269675.2412010483</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>340212.2247010482</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>340212.2247010482</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>365110.4135010482</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>365110.4135010482</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>375689.5261010482</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>369702.9893010482</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>363885.8705010482</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>368393.2640010482</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>385033.0432010482</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>325188.1291010482</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>306890.3806010482</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>282849.0051010482</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>287124.6560010482</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>284237.5167010482</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>265313.6784010482</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>226397.8471010482</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>151590.0881010483</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>140667.0898010482</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>166196.6119010483</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>183549.9637010483</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>204460.1144010483</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>205859.6738010483</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>209358.5723010483</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>181506.5578010483</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>189214.2610010483</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>189214.2610010483</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>194848.5024010483</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>201826.2371883593</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>199027.1183883593</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>208956.0412010483</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>196385.1512010483</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>199345.5701010483</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>197946.0107010483</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>194943.2833010483</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>196342.8427010483</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>192843.9442010483</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>192843.9442010483</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>191025.2961010483</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>192424.8555010483</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -30019,11 +30019,17 @@
         <v>-1076663.248736914</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>60.15</v>
+      </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30052,11 +30058,17 @@
         <v>-1041816.385136914</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>60.35</v>
+      </c>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30085,11 +30097,17 @@
         <v>-1011459.743336914</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>60.36</v>
+      </c>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30118,11 +30136,17 @@
         <v>-1024241.358236914</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>60.84</v>
+      </c>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30151,11 +30175,17 @@
         <v>-1015721.740136914</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>60.66</v>
+      </c>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30184,11 +30214,17 @@
         <v>-1015721.740136914</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>60.85</v>
+      </c>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30217,11 +30253,17 @@
         <v>-1012922.621336914</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>60.85</v>
+      </c>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +30296,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +30333,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +30370,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +30407,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +30444,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +30481,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30452,7 +30518,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +30555,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +30592,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30551,7 +30629,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30584,7 +30666,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30617,7 +30703,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30650,7 +30740,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30683,7 +30777,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30716,7 +30814,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30749,7 +30851,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30782,7 +30888,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30815,7 +30925,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30848,7 +30962,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30881,7 +30999,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30914,7 +31036,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30947,7 +31073,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30980,7 +31110,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31013,7 +31147,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31046,7 +31184,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31079,7 +31221,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31112,7 +31258,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31145,7 +31295,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31178,7 +31332,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31211,7 +31369,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31244,7 +31406,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31277,7 +31443,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31310,7 +31480,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31343,7 +31517,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31376,7 +31554,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31409,7 +31591,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31442,7 +31628,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31475,7 +31665,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31508,7 +31702,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31541,7 +31739,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31574,7 +31776,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31607,7 +31813,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31640,7 +31850,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31673,7 +31887,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31706,7 +31924,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31739,7 +31961,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31772,7 +31998,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31805,7 +32035,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31838,7 +32072,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31871,7 +32109,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31904,7 +32146,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31937,7 +32183,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31970,7 +32220,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32003,7 +32257,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32036,7 +32294,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32069,7 +32331,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32102,7 +32368,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32131,11 +32401,17 @@
         <v>-1045946.058436914</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>60.38</v>
+      </c>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32164,11 +32440,17 @@
         <v>-1045246.278736914</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>60.15</v>
+      </c>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32197,11 +32479,17 @@
         <v>-1045246.278736914</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>60.22</v>
+      </c>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32230,11 +32518,17 @@
         <v>-1044546.499036914</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>60.22</v>
+      </c>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32263,11 +32557,17 @@
         <v>-1051080.231636914</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>60.23</v>
+      </c>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32296,11 +32596,17 @@
         <v>-1061547.536136914</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>60.17</v>
+      </c>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32329,11 +32635,17 @@
         <v>-1065742.399336914</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>60.14</v>
+      </c>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32362,11 +32674,17 @@
         <v>-1065742.399336914</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32395,11 +32713,17 @@
         <v>-1071735.857036914</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32428,11 +32752,17 @@
         <v>-1059616.648136914</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>60.1</v>
+      </c>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32461,11 +32791,17 @@
         <v>-1063184.876736914</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>60.13</v>
+      </c>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32494,11 +32830,17 @@
         <v>-1096972.234736914</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32527,11 +32869,17 @@
         <v>-1100016.357636914</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>59.89</v>
+      </c>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32560,11 +32908,17 @@
         <v>-1100016.357636914</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>59.77</v>
+      </c>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32593,11 +32947,17 @@
         <v>-1116080.692636914</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>59.77</v>
+      </c>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32626,11 +32986,17 @@
         <v>-1111792.725436914</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>59.69</v>
+      </c>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32659,11 +33025,17 @@
         <v>-1119462.145336914</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>59.76</v>
+      </c>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32692,11 +33064,17 @@
         <v>-1094351.137636914</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>59.63</v>
+      </c>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32725,11 +33103,17 @@
         <v>-1042588.623336914</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>60</v>
+      </c>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32758,11 +33142,17 @@
         <v>-1042588.623336914</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>60.14</v>
+      </c>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32791,11 +33181,17 @@
         <v>-1039655.688336914</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>60.14</v>
+      </c>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32824,11 +33220,17 @@
         <v>-1039655.688336914</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>60.17</v>
+      </c>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32857,11 +33259,17 @@
         <v>-1039655.688336914</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>60.17</v>
+      </c>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32890,11 +33298,17 @@
         <v>-1039655.688336914</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>60.17</v>
+      </c>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32923,11 +33337,17 @@
         <v>-1039655.688336914</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>60.17</v>
+      </c>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32956,11 +33376,17 @@
         <v>-1039655.688336914</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>60.17</v>
+      </c>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32989,11 +33415,17 @@
         <v>-1039655.688336914</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>60.17</v>
+      </c>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33022,11 +33454,17 @@
         <v>-1039655.688336914</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>60.17</v>
+      </c>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33055,11 +33493,17 @@
         <v>-1012784.412436914</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>60.17</v>
+      </c>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33088,11 +33532,17 @@
         <v>-1011384.853036914</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>60.36</v>
+      </c>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33121,11 +33571,17 @@
         <v>-1014280.941836914</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>60.52</v>
+      </c>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33154,11 +33610,17 @@
         <v>-1014280.941836914</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>60.47</v>
+      </c>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33191,7 +33653,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33224,7 +33690,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33257,7 +33727,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33286,11 +33760,17 @@
         <v>-1016525.714636914</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>60.24</v>
+      </c>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33323,7 +33803,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33356,7 +33840,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33389,7 +33877,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33422,7 +33914,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33451,11 +33947,17 @@
         <v>-1152788.090436914</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>60.09</v>
+      </c>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33484,11 +33986,17 @@
         <v>-1150654.304636914</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>60.1</v>
+      </c>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33517,11 +34025,17 @@
         <v>-1159049.172136914</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33550,11 +34064,17 @@
         <v>-1140406.583236914</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>60.04</v>
+      </c>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33583,11 +34103,17 @@
         <v>-1141106.362936914</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>60.15</v>
+      </c>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33616,11 +34142,17 @@
         <v>-1133383.431036914</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>60.13</v>
+      </c>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33653,7 +34185,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33682,11 +34218,17 @@
         <v>-1138975.233536914</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33715,11 +34257,17 @@
         <v>-1138975.233536914</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33748,11 +34296,17 @@
         <v>-1136875.894436914</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33781,11 +34335,17 @@
         <v>-1136875.894436914</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>60.12</v>
+      </c>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33814,11 +34374,17 @@
         <v>-1234244.965236914</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>60.12</v>
+      </c>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33851,7 +34417,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33880,11 +34450,17 @@
         <v>-1229504.161936914</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>59.98</v>
+      </c>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33913,11 +34489,17 @@
         <v>-1309878.815936914</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>59.99</v>
+      </c>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33946,11 +34528,17 @@
         <v>-1309878.815936914</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>59.98</v>
+      </c>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33979,11 +34567,17 @@
         <v>-1300447.816336914</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>59.98</v>
+      </c>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34012,11 +34606,17 @@
         <v>-1302595.585836914</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34045,11 +34645,17 @@
         <v>-1293201.701336914</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>60.09</v>
+      </c>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34078,11 +34684,17 @@
         <v>-1293901.481036915</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>60.1</v>
+      </c>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34111,11 +34723,17 @@
         <v>-1288940.081236914</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>59.99</v>
+      </c>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34144,11 +34762,17 @@
         <v>-1305150.732736914</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>60.02</v>
+      </c>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34177,11 +34801,17 @@
         <v>-1307948.010936914</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>60</v>
+      </c>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34210,11 +34840,17 @@
         <v>-1307948.010936914</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>59.89</v>
+      </c>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34243,11 +34879,17 @@
         <v>-1307948.010936914</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>59.89</v>
+      </c>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34276,11 +34918,17 @@
         <v>-1315317.939236915</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>59.89</v>
+      </c>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34309,11 +34957,17 @@
         <v>-1311677.469336915</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>59.88</v>
+      </c>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34342,11 +34996,17 @@
         <v>-1320823.204436915</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>59.89</v>
+      </c>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34375,11 +35035,17 @@
         <v>-1317331.591036915</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>59.74</v>
+      </c>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34408,11 +35074,17 @@
         <v>-1317331.591036915</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>59.81</v>
+      </c>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34441,11 +35113,17 @@
         <v>-1319505.374436915</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>59.81</v>
+      </c>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34474,11 +35152,17 @@
         <v>-1325417.399736915</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>59.8</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34507,11 +35191,17 @@
         <v>-1325417.399736915</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>59.67</v>
+      </c>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34540,11 +35230,17 @@
         <v>-1337047.237936915</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>59.67</v>
+      </c>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34573,11 +35269,17 @@
         <v>-1340900.974436915</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>59.51</v>
+      </c>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34606,11 +35308,17 @@
         <v>-1340900.974436915</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>59.43</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34639,11 +35347,17 @@
         <v>-1328855.254836915</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>59.43</v>
+      </c>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34672,11 +35386,17 @@
         <v>-1349842.848536915</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>59.57</v>
+      </c>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34705,11 +35425,17 @@
         <v>-1391789.455536915</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>59.26</v>
+      </c>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34738,11 +35464,17 @@
         <v>-1423990.281436915</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>59.19</v>
+      </c>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34771,11 +35503,17 @@
         <v>-1426105.674236915</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>59.14</v>
+      </c>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34804,11 +35542,17 @@
         <v>-1430089.991736915</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>59.13</v>
+      </c>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34837,15 +35581,17 @@
         <v>-1430089.991736915</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1044" t="n">
         <v>59.07</v>
       </c>
-      <c r="J1044" t="n">
-        <v>59.07</v>
-      </c>
-      <c r="K1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34874,17 +35620,15 @@
         <v>-1437627.833236915</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1045" t="n">
         <v>59.07</v>
       </c>
-      <c r="J1045" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1045" t="n">
@@ -34915,14 +35659,12 @@
         <v>-1430428.390636915</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1046" t="n">
         <v>59</v>
       </c>
-      <c r="J1046" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34956,14 +35698,12 @@
         <v>-1425323.274736915</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1047" t="n">
         <v>59.03</v>
       </c>
-      <c r="J1047" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34997,14 +35737,12 @@
         <v>-1421824.376236915</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1048" t="n">
         <v>59.2</v>
       </c>
-      <c r="J1048" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35038,14 +35776,12 @@
         <v>-1421824.376236915</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1049" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1049" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35079,14 +35815,12 @@
         <v>-1385617.465336915</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1050" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1050" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35120,14 +35854,12 @@
         <v>-1399791.108536915</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1051" t="n">
         <v>59.23</v>
       </c>
-      <c r="J1051" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35161,14 +35893,12 @@
         <v>-1399791.108536915</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1052" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1052" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35202,14 +35932,12 @@
         <v>-1381475.668336915</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1053" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1053" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35243,14 +35971,12 @@
         <v>-1378676.549536915</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1054" t="n">
         <v>59.39</v>
       </c>
-      <c r="J1054" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35284,14 +36010,12 @@
         <v>-1385274.169736915</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1055" t="n">
         <v>59.46</v>
       </c>
-      <c r="J1055" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35325,14 +36049,12 @@
         <v>-1353297.489236915</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1056" t="n">
         <v>59.37</v>
       </c>
-      <c r="J1056" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35366,14 +36088,12 @@
         <v>-1342062.36116192</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1057" t="n">
         <v>60</v>
       </c>
-      <c r="J1057" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35407,14 +36127,12 @@
         <v>-1319218.498636915</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1058" t="n">
         <v>60.12</v>
       </c>
-      <c r="J1058" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35448,14 +36166,12 @@
         <v>-1327236.914436915</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1059" t="n">
         <v>60.37</v>
       </c>
-      <c r="J1059" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35489,12 +36205,12 @@
         <v>-1327236.914436915</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35528,12 +36244,12 @@
         <v>-1329336.253536915</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35567,12 +36283,12 @@
         <v>-1328636.473836915</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35606,12 +36322,12 @@
         <v>-1328636.473836915</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35645,12 +36361,12 @@
         <v>-1326521.740136915</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35684,12 +36400,12 @@
         <v>-1329662.241236915</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>60.31</v>
+      </c>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35723,12 +36439,12 @@
         <v>-1316779.035436915</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35762,12 +36478,12 @@
         <v>-1316779.035436915</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35801,12 +36517,12 @@
         <v>-1314596.711636915</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35840,12 +36556,12 @@
         <v>-1318161.329236915</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35879,12 +36595,12 @@
         <v>-1313852.455636915</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35918,12 +36634,12 @@
         <v>-1336785.242236915</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35957,12 +36673,12 @@
         <v>-1334694.063336915</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35996,12 +36712,12 @@
         <v>-1334694.063336915</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36035,12 +36751,12 @@
         <v>-1334694.063336915</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36077,9 +36793,7 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36116,9 +36830,7 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36152,12 +36864,12 @@
         <v>-1334694.063336915</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36191,12 +36903,12 @@
         <v>-1332502.953236915</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36230,12 +36942,12 @@
         <v>-1327321.695636916</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36269,12 +36981,12 @@
         <v>-1322198.708836915</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>60.31</v>
+      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36308,12 +37020,12 @@
         <v>-1318886.495536915</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>60.36</v>
+      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36347,12 +37059,12 @@
         <v>-1316728.709936915</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>60.42</v>
+      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36389,9 +37101,7 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36428,9 +37138,7 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36467,9 +37175,7 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36506,9 +37212,7 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36542,12 +37246,12 @@
         <v>-1305710.061336915</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36581,12 +37285,12 @@
         <v>-1305710.061336915</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>60.61</v>
+      </c>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36620,12 +37324,12 @@
         <v>-1305710.061336915</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>60.61</v>
+      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36659,12 +37363,12 @@
         <v>-1305710.061336915</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>60.61</v>
+      </c>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36698,12 +37402,12 @@
         <v>-1305010.281636915</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>60.61</v>
+      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36737,12 +37441,12 @@
         <v>-1302182.575936915</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36776,12 +37480,12 @@
         <v>-1298683.677436915</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>60.72</v>
+      </c>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36815,12 +37519,12 @@
         <v>-1298683.677436915</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>60.77</v>
+      </c>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36854,12 +37558,12 @@
         <v>-1285289.938636915</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>60.77</v>
+      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36893,12 +37597,12 @@
         <v>-1292868.164736915</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>60.81</v>
+      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36932,12 +37636,12 @@
         <v>-1294267.724136915</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>60.71</v>
+      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36971,12 +37675,12 @@
         <v>-1306471.595236915</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>60.67</v>
+      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37010,12 +37714,12 @@
         <v>-1299982.459536915</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37049,12 +37753,12 @@
         <v>-1319634.507936915</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>60.81</v>
+      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37088,12 +37792,12 @@
         <v>-1321034.067336915</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>60.59</v>
+      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37127,12 +37831,12 @@
         <v>-1348938.313136915</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>60.58</v>
+      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37166,12 +37870,12 @@
         <v>-1318506.204336915</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>60.28</v>
+      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37205,12 +37909,12 @@
         <v>-1323424.789036915</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37244,12 +37948,12 @@
         <v>-1326003.995436915</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37283,12 +37987,12 @@
         <v>-1321788.053736915</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37322,12 +38026,12 @@
         <v>-1324680.466736915</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>60.31</v>
+      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37361,12 +38065,12 @@
         <v>-1324680.466736915</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37400,12 +38104,12 @@
         <v>-1327479.585536915</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37439,12 +38143,12 @@
         <v>-1327479.585536915</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>60.28</v>
+      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37478,12 +38182,12 @@
         <v>-1312956.765936915</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>60.28</v>
+      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37517,12 +38221,12 @@
         <v>-1297943.272536915</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37556,12 +38260,12 @@
         <v>-1304313.165336915</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37595,12 +38299,12 @@
         <v>-1304313.165336915</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>60.28</v>
+      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37634,12 +38338,12 @@
         <v>-1299318.613036915</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>60.28</v>
+      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37673,12 +38377,12 @@
         <v>-1299318.613036915</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37712,12 +38416,12 @@
         <v>-1310448.511536915</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37751,12 +38455,12 @@
         <v>-1310448.511536915</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>60.28</v>
+      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37790,12 +38494,12 @@
         <v>-1310448.511536915</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>60.28</v>
+      </c>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37829,12 +38533,12 @@
         <v>-1306949.613036915</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>60.28</v>
+      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37868,12 +38572,12 @@
         <v>-1304840.273936915</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37907,12 +38611,12 @@
         <v>-1313410.982436915</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37946,12 +38650,12 @@
         <v>-1325088.539936915</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37985,12 +38689,12 @@
         <v>-1318863.339036915</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>59.92</v>
+      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38024,12 +38728,12 @@
         <v>-1314061.257736915</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38063,12 +38767,12 @@
         <v>-1316895.347336915</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38102,12 +38806,12 @@
         <v>-1316895.347336915</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38141,12 +38845,12 @@
         <v>-1314096.228536915</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38180,12 +38884,12 @@
         <v>-1314096.228536915</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38219,12 +38923,12 @@
         <v>-1311297.109736915</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38258,12 +38962,12 @@
         <v>-1310597.330036915</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38297,12 +39001,12 @@
         <v>-1315620.593536915</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38336,12 +39040,12 @@
         <v>-1288231.679036915</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>60.15</v>
+      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38375,12 +39079,12 @@
         <v>-1291754.504436915</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>60.27</v>
+      </c>
+      <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38414,12 +39118,12 @@
         <v>-1288955.385636915</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>60.04</v>
+      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38453,12 +39157,12 @@
         <v>-1293234.536136915</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>60.05</v>
+      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38492,12 +39196,12 @@
         <v>-1293234.536136915</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38531,12 +39235,12 @@
         <v>-1309769.454236915</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38570,12 +39274,12 @@
         <v>-1305529.940036915</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38609,12 +39313,12 @@
         <v>-1301998.820036914</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38648,12 +39352,12 @@
         <v>-1306377.039636914</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>60.27</v>
+      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38687,12 +39391,12 @@
         <v>-1302870.611836914</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>60.26</v>
+      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38726,12 +39430,12 @@
         <v>-1385337.994736915</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>60.27</v>
+      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38765,12 +39469,12 @@
         <v>-1405078.968436914</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>59.83</v>
+      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38804,12 +39508,12 @@
         <v>-1407195.349636914</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>59.76</v>
+      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38843,12 +39547,12 @@
         <v>-1415143.834736914</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>59.74</v>
+      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38882,12 +39586,12 @@
         <v>-1386773.708036914</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>59.71</v>
+      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38921,12 +39625,12 @@
         <v>-1388873.047136914</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38960,12 +39664,12 @@
         <v>-1374453.778636914</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>59.93</v>
+      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38999,12 +39703,12 @@
         <v>-1375153.558336915</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>60</v>
+      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39038,12 +39742,12 @@
         <v>-1375153.558336915</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39077,12 +39781,12 @@
         <v>-1378824.502236915</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39116,12 +39820,12 @@
         <v>-1375227.486236915</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>59.93</v>
+      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39155,12 +39859,12 @@
         <v>-1396325.364336915</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39194,12 +39898,12 @@
         <v>-1389616.598736915</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>59.93</v>
+      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39233,12 +39937,12 @@
         <v>-1402161.431736915</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>60.07</v>
+      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39272,12 +39976,12 @@
         <v>-1402161.431736915</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39311,12 +40015,12 @@
         <v>-1400062.092636915</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39350,12 +40054,12 @@
         <v>-1400062.092636915</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>59.88</v>
+      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39389,12 +40093,12 @@
         <v>-1402641.349136915</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>59.88</v>
+      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39428,12 +40132,12 @@
         <v>-1399147.008836915</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>59.82</v>
+      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39467,12 +40171,12 @@
         <v>-1401244.970336915</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39506,12 +40210,12 @@
         <v>-1406194.229536914</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39545,12 +40249,12 @@
         <v>-1406194.229536914</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39584,12 +40288,12 @@
         <v>-1404794.670136915</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39623,12 +40327,12 @@
         <v>-1404794.670136915</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39662,12 +40366,12 @@
         <v>-1408315.203936915</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39701,12 +40405,12 @@
         <v>-1408315.203936915</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39740,12 +40444,12 @@
         <v>-1407615.424236915</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39779,12 +40483,12 @@
         <v>-1407615.424236915</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39818,12 +40522,12 @@
         <v>-1409014.983636915</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39857,12 +40561,12 @@
         <v>-1413213.661836914</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39896,12 +40600,12 @@
         <v>-1409714.763336915</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>59.89</v>
+      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39935,12 +40639,12 @@
         <v>-1409714.763336915</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39974,12 +40678,12 @@
         <v>-1418660.075636915</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40013,12 +40717,12 @@
         <v>-1472779.258836915</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40052,12 +40756,12 @@
         <v>-1474878.597936915</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40091,12 +40795,12 @@
         <v>-1479646.508536915</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>59.23</v>
+      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40130,12 +40834,12 @@
         <v>-1480346.288236915</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40169,12 +40873,12 @@
         <v>-1480346.288236915</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>59.14</v>
+      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40208,12 +40912,12 @@
         <v>-1478946.728836915</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>59.14</v>
+      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40247,14 +40951,12 @@
         <v>-1484520.561436915</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1182" t="n">
         <v>59.15</v>
       </c>
-      <c r="J1182" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40288,14 +40990,12 @@
         <v>-1478409.784936915</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1183" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1183" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40329,14 +41029,12 @@
         <v>-1477710.005236915</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1184" t="n">
         <v>59.15</v>
       </c>
-      <c r="J1184" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40370,14 +41068,12 @@
         <v>-1483850.144536915</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1185" t="n">
         <v>59.32</v>
       </c>
-      <c r="J1185" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40411,14 +41107,12 @@
         <v>-1487493.657036915</v>
       </c>
       <c r="H1186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1186" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1186" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40452,14 +41146,12 @@
         <v>-1478062.521236915</v>
       </c>
       <c r="H1187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1187" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1187" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40493,14 +41185,12 @@
         <v>-1478062.521236915</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1188" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1188" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40534,14 +41224,12 @@
         <v>-1480870.195436915</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1189" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1189" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40575,14 +41263,12 @@
         <v>-1486014.537336915</v>
       </c>
       <c r="H1190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1190" t="n">
         <v>59.29</v>
       </c>
-      <c r="J1190" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40616,12 +41302,12 @@
         <v>-1495131.679436915</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>59.13</v>
+      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40655,14 +41341,12 @@
         <v>-1422936.046236915</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1192" t="n">
         <v>59.12</v>
       </c>
-      <c r="J1192" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40696,14 +41380,12 @@
         <v>-1421536.486836915</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1193" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1193" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40737,14 +41419,12 @@
         <v>-1418021.868736915</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1194" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1194" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40778,14 +41458,12 @@
         <v>-1420216.038536915</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1195" t="n">
         <v>59.29</v>
       </c>
-      <c r="J1195" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40819,14 +41497,12 @@
         <v>-1415917.257336915</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1196" t="n">
         <v>59.27</v>
       </c>
-      <c r="J1196" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40860,14 +41536,12 @@
         <v>-1415917.257336915</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1197" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1197" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40901,14 +41575,12 @@
         <v>-1420114.612336915</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1198" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1198" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40942,14 +41614,12 @@
         <v>-1418015.273236915</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1199" t="n">
         <v>59.27</v>
       </c>
-      <c r="J1199" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40983,14 +41653,12 @@
         <v>-1421572.038136915</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1200" t="n">
         <v>59.29</v>
       </c>
-      <c r="J1200" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41024,14 +41692,12 @@
         <v>-1412594.752736915</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1201" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1201" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41065,14 +41731,12 @@
         <v>-1414694.091836915</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1202" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1202" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41106,14 +41770,12 @@
         <v>-1411124.812836915</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1203" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1203" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41147,14 +41809,12 @@
         <v>-1411124.812836915</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1204" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1204" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41188,14 +41848,12 @@
         <v>-1406828.496936915</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1205" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1205" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41229,14 +41887,12 @@
         <v>-1408927.836036915</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1206" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1206" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41270,14 +41926,12 @@
         <v>-1408927.836036915</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1207" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1207" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41311,14 +41965,12 @@
         <v>-1408927.836036915</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1208" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1208" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41352,14 +42004,12 @@
         <v>-1408927.836036915</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1209" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1209" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41393,14 +42043,12 @@
         <v>-1404656.810336915</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1210" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1210" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41434,14 +42082,12 @@
         <v>-1406756.149436915</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1211" t="n">
         <v>59.32</v>
       </c>
-      <c r="J1211" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41475,14 +42121,12 @@
         <v>-1406756.149436915</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1212" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1212" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41516,14 +42160,12 @@
         <v>-1403874.433836915</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1213" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1213" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41557,14 +42199,12 @@
         <v>-1403874.433836915</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1214" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1214" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41598,14 +42238,12 @@
         <v>-1408198.077336915</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1215" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1215" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41639,14 +42277,12 @@
         <v>-1411049.678536915</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1216" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1216" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41680,14 +42316,12 @@
         <v>-1385656.174036915</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1217" t="n">
         <v>59.13</v>
       </c>
-      <c r="J1217" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41721,12 +42355,12 @@
         <v>-1385656.174036915</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41760,12 +42394,12 @@
         <v>-1399801.977436915</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41799,12 +42433,12 @@
         <v>-1397561.516590565</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41838,12 +42472,12 @@
         <v>-1404177.297190565</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41877,12 +42511,12 @@
         <v>-1401279.228990565</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41916,12 +42550,12 @@
         <v>-1403496.404290565</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41955,12 +42589,12 @@
         <v>-1403496.404290565</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41994,12 +42628,12 @@
         <v>-1399297.726090565</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42033,12 +42667,12 @@
         <v>-1400697.285490565</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42072,12 +42706,12 @@
         <v>-1399987.505790564</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42111,12 +42745,12 @@
         <v>-1399987.505790564</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42150,12 +42784,12 @@
         <v>-1396429.088890564</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42189,12 +42823,12 @@
         <v>-1396429.088890564</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42228,12 +42862,12 @@
         <v>-1392203.419890564</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42267,12 +42901,12 @@
         <v>-1398599.031590564</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>59.33</v>
+      </c>
+      <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42306,12 +42940,12 @@
         <v>-1431630.622190564</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42345,12 +42979,12 @@
         <v>-1433729.961290564</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42384,12 +43018,12 @@
         <v>-1435129.520690564</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42423,12 +43057,12 @@
         <v>-1428667.270190564</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>59.23</v>
+      </c>
+      <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42462,12 +43096,12 @@
         <v>-1433436.350290564</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>59.37</v>
+      </c>
+      <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42501,12 +43135,12 @@
         <v>-1439957.256390564</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>59.23</v>
+      </c>
+      <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42540,12 +43174,12 @@
         <v>-1391982.886590564</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>59.17</v>
+      </c>
+      <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42579,14 +43213,12 @@
         <v>-1384934.685290564</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1240" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1240" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42620,14 +43252,12 @@
         <v>-1382135.566490564</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1241" t="n">
         <v>59.24</v>
       </c>
-      <c r="J1241" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42661,14 +43291,12 @@
         <v>-1400028.304290564</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1242" t="n">
         <v>59.35</v>
       </c>
-      <c r="J1242" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42702,12 +43330,12 @@
         <v>-1400028.304290564</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42741,12 +43369,12 @@
         <v>-1400028.304290564</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42780,14 +43408,12 @@
         <v>-1397928.965190564</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1245" t="n">
         <v>59.24</v>
       </c>
-      <c r="J1245" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42821,14 +43447,12 @@
         <v>-1405546.809090564</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1246" t="n">
         <v>59.35</v>
       </c>
-      <c r="J1246" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42862,14 +43486,12 @@
         <v>-1410536.625390564</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1247" t="n">
         <v>59.25</v>
       </c>
-      <c r="J1247" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42903,14 +43525,12 @@
         <v>-1410536.625390564</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1248" t="n">
         <v>59.16</v>
       </c>
-      <c r="J1248" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42944,14 +43564,12 @@
         <v>-1338067.655390564</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1249" t="n">
         <v>59.16</v>
       </c>
-      <c r="J1249" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42985,14 +43603,12 @@
         <v>-1342966.113290564</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1250" t="n">
         <v>59.25</v>
       </c>
-      <c r="J1250" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43026,14 +43642,12 @@
         <v>-1338067.655390564</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1251" t="n">
         <v>59.24</v>
       </c>
-      <c r="J1251" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43067,14 +43681,12 @@
         <v>-1337367.875690564</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1252" t="n">
         <v>59.25</v>
       </c>
-      <c r="J1252" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43108,14 +43720,12 @@
         <v>-1337367.875690564</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1253" t="n">
         <v>59.34</v>
       </c>
-      <c r="J1253" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43149,14 +43759,12 @@
         <v>-1337367.875690564</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1254" t="n">
         <v>59.34</v>
       </c>
-      <c r="J1254" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43190,14 +43798,12 @@
         <v>-1323868.977190564</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1255" t="n">
         <v>59.34</v>
       </c>
-      <c r="J1255" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43231,14 +43837,12 @@
         <v>-1313227.623190564</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1256" t="n">
         <v>59.35</v>
       </c>
-      <c r="J1256" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43272,14 +43876,12 @@
         <v>-1303543.831436914</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1257" t="n">
         <v>59.45</v>
       </c>
-      <c r="J1257" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43313,14 +43915,12 @@
         <v>-1289923.830736914</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1258" t="n">
         <v>59.57</v>
       </c>
-      <c r="J1258" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43354,14 +43954,12 @@
         <v>-1281358.710636914</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1259" t="n">
         <v>59.65</v>
       </c>
-      <c r="J1259" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43395,12 +43993,12 @@
         <v>-1280658.930936914</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43434,12 +44032,12 @@
         <v>-1284152.674036914</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43473,12 +44071,12 @@
         <v>-1279948.582836914</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43512,12 +44110,12 @@
         <v>-1282747.701636914</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43551,12 +44149,12 @@
         <v>-1282747.701636914</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>59.64</v>
+      </c>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43590,12 +44188,12 @@
         <v>-1270569.045936914</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>59.64</v>
+      </c>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43629,12 +44227,12 @@
         <v>-1266250.753736914</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43668,12 +44266,12 @@
         <v>-1264151.414636914</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>59.86</v>
+      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43707,12 +44305,12 @@
         <v>-1267740.661636914</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43746,12 +44344,12 @@
         <v>-1265626.923536914</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>59.86</v>
+      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43785,12 +44383,12 @@
         <v>-1379052.037736914</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43824,12 +44422,12 @@
         <v>-1376234.315236914</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43863,12 +44461,12 @@
         <v>-1374109.519636914</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43902,12 +44500,12 @@
         <v>-1374109.519636914</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43941,12 +44539,12 @@
         <v>-1378311.459036914</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43980,12 +44578,12 @@
         <v>-1380410.798136914</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44019,12 +44617,12 @@
         <v>-1377611.679336914</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44058,12 +44656,12 @@
         <v>-1384216.151236914</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44097,12 +44695,12 @@
         <v>-1386373.556436914</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44136,12 +44734,12 @@
         <v>-1386373.556436914</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1279" t="inlineStr"/>
-      <c r="J1279" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44175,12 +44773,12 @@
         <v>-1389229.165536914</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44214,12 +44812,12 @@
         <v>-1386402.028536914</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44253,12 +44851,12 @@
         <v>-1390614.678236914</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44292,12 +44890,12 @@
         <v>-1377857.503136914</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44331,12 +44929,12 @@
         <v>-1375691.475036914</v>
       </c>
       <c r="H1284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1284" t="inlineStr"/>
-      <c r="J1284" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44370,12 +44968,12 @@
         <v>-1375691.475036914</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1285" t="inlineStr"/>
-      <c r="J1285" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44409,12 +45007,12 @@
         <v>-1377781.623736914</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1286" t="inlineStr"/>
-      <c r="J1286" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44448,12 +45046,12 @@
         <v>-1373520.459636914</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1287" t="inlineStr"/>
-      <c r="J1287" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44487,12 +45085,12 @@
         <v>-1372820.679936914</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1288" t="inlineStr"/>
-      <c r="J1288" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44526,12 +45124,12 @@
         <v>-1371421.120536914</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44565,12 +45163,12 @@
         <v>-1375619.798736914</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>59.69</v>
+      </c>
+      <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44604,12 +45202,12 @@
         <v>-1377719.137836914</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1291" t="inlineStr"/>
-      <c r="J1291" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44643,12 +45241,12 @@
         <v>-1383406.602436914</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44682,12 +45280,12 @@
         <v>-1379907.703936914</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1293" t="inlineStr"/>
-      <c r="J1293" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>59.46</v>
+      </c>
+      <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44721,12 +45319,12 @@
         <v>-1377763.676236914</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1294" t="inlineStr"/>
-      <c r="J1294" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44760,12 +45358,12 @@
         <v>-1380562.795036914</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1295" t="inlineStr"/>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44799,12 +45397,12 @@
         <v>-1382662.134136914</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1296" t="inlineStr"/>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44838,12 +45436,12 @@
         <v>-1382662.134136914</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1297" t="inlineStr"/>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44877,12 +45475,12 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1298" t="inlineStr"/>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44916,12 +45514,12 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1299" t="inlineStr"/>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44955,12 +45553,12 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44994,12 +45592,12 @@
         <v>-1384010.517636914</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1301" t="inlineStr"/>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45033,12 +45631,12 @@
         <v>-1381917.154936914</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="J1302" t="inlineStr"/>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45072,12 +45670,12 @@
         <v>-1384716.273736914</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1303" t="inlineStr"/>
-      <c r="J1303" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45111,12 +45709,12 @@
         <v>-1379109.673236914</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="J1304" t="inlineStr"/>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45150,12 +45748,12 @@
         <v>-1379109.673236914</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1305" t="inlineStr"/>
-      <c r="J1305" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45189,12 +45787,12 @@
         <v>-1365009.253236915</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45228,12 +45826,12 @@
         <v>-1367893.857936915</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1307" t="inlineStr"/>
-      <c r="J1307" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>59.88</v>
+      </c>
+      <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45267,12 +45865,12 @@
         <v>-1364856.694336914</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1308" t="inlineStr"/>
-      <c r="J1308" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45306,12 +45904,12 @@
         <v>-1365556.474036915</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>59.88</v>
+      </c>
+      <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45345,12 +45943,12 @@
         <v>-1362057.575536915</v>
       </c>
       <c r="H1310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45384,12 +45982,12 @@
         <v>-1362057.575536915</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45423,12 +46021,12 @@
         <v>-1362057.575536915</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45462,12 +46060,12 @@
         <v>-1362757.355236915</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1313" t="inlineStr"/>
-      <c r="J1313" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45501,12 +46099,12 @@
         <v>-1359245.876036915</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1314" t="inlineStr"/>
-      <c r="J1314" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45540,12 +46138,12 @@
         <v>-1361241.428336915</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1315" t="inlineStr"/>
-      <c r="J1315" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>59.69</v>
+      </c>
+      <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45579,12 +46177,12 @@
         <v>-1350527.319536915</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1316" t="inlineStr"/>
-      <c r="J1316" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>59.58</v>
+      </c>
+      <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45618,12 +46216,12 @@
         <v>-1351227.099236915</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45657,12 +46255,12 @@
         <v>-1349127.760136915</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45696,12 +46294,12 @@
         <v>-1335607.641336915</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>59.73</v>
+      </c>
+      <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45735,12 +46333,12 @@
         <v>-1311577.691536915</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45774,12 +46372,12 @@
         <v>-1295569.233636915</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1321" t="inlineStr"/>
-      <c r="J1321" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45813,12 +46411,12 @@
         <v>-1299944.546236915</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1322" t="inlineStr"/>
-      <c r="J1322" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="J1322" t="inlineStr"/>
       <c r="K1322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45852,12 +46450,12 @@
         <v>-1302043.885336915</v>
       </c>
       <c r="H1323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1323" t="inlineStr"/>
-      <c r="J1323" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>59.82</v>
+      </c>
+      <c r="J1323" t="inlineStr"/>
       <c r="K1323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45891,12 +46489,12 @@
         <v>-1300644.325936915</v>
       </c>
       <c r="H1324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1324" t="inlineStr"/>
-      <c r="J1324" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>59.81</v>
+      </c>
+      <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45930,12 +46528,12 @@
         <v>-1285935.634236915</v>
       </c>
       <c r="H1325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1325" t="inlineStr"/>
-      <c r="J1325" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>59.83</v>
+      </c>
+      <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45969,12 +46567,12 @@
         <v>-1290181.438336915</v>
       </c>
       <c r="H1326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1326" t="inlineStr"/>
-      <c r="J1326" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>60.07</v>
+      </c>
+      <c r="J1326" t="inlineStr"/>
       <c r="K1326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46008,12 +46606,12 @@
         <v>-1290181.438336915</v>
       </c>
       <c r="H1327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1327" t="inlineStr"/>
-      <c r="J1327" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>59.91</v>
+      </c>
+      <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46047,12 +46645,12 @@
         <v>-1276972.099236915</v>
       </c>
       <c r="H1328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1328" t="inlineStr"/>
-      <c r="J1328" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>59.91</v>
+      </c>
+      <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46086,12 +46684,12 @@
         <v>-1252995.786536915</v>
       </c>
       <c r="H1329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1329" t="inlineStr"/>
-      <c r="J1329" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>59.92</v>
+      </c>
+      <c r="J1329" t="inlineStr"/>
       <c r="K1329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46125,12 +46723,12 @@
         <v>-1254511.933136915</v>
       </c>
       <c r="H1330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1330" t="inlineStr"/>
-      <c r="J1330" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="J1330" t="inlineStr"/>
       <c r="K1330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46164,12 +46762,12 @@
         <v>-1254511.933136915</v>
       </c>
       <c r="H1331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1331" t="inlineStr"/>
-      <c r="J1331" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1331" t="inlineStr"/>
       <c r="K1331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46203,12 +46801,12 @@
         <v>-1244488.488536915</v>
       </c>
       <c r="H1332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1332" t="inlineStr"/>
-      <c r="J1332" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46242,12 +46840,12 @@
         <v>-1260548.909336915</v>
       </c>
       <c r="H1333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="J1333" t="inlineStr"/>
       <c r="K1333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46281,12 +46879,12 @@
         <v>-1256279.271836915</v>
       </c>
       <c r="H1334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1334" t="inlineStr"/>
-      <c r="J1334" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="J1334" t="inlineStr"/>
       <c r="K1334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46320,12 +46918,12 @@
         <v>-1260478.442936915</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1335" t="inlineStr"/>
-      <c r="J1335" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="J1335" t="inlineStr"/>
       <c r="K1335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46359,12 +46957,12 @@
         <v>-1257658.847536915</v>
       </c>
       <c r="H1336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1336" t="inlineStr"/>
-      <c r="J1336" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="J1336" t="inlineStr"/>
       <c r="K1336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46398,12 +46996,12 @@
         <v>-937062.773950884</v>
       </c>
       <c r="H1337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1337" t="inlineStr"/>
-      <c r="J1337" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="J1337" t="inlineStr"/>
       <c r="K1337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46440,9 +47038,7 @@
         <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
-      <c r="J1338" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1338" t="inlineStr"/>
       <c r="K1338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46479,9 +47075,7 @@
         <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
-      <c r="J1339" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1339" t="inlineStr"/>
       <c r="K1339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46518,9 +47112,7 @@
         <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
-      <c r="J1340" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1340" t="inlineStr"/>
       <c r="K1340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46557,9 +47149,7 @@
         <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
-      <c r="J1341" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1341" t="inlineStr"/>
       <c r="K1341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46596,9 +47186,7 @@
         <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
-      <c r="J1342" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1342" t="inlineStr"/>
       <c r="K1342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46635,9 +47223,7 @@
         <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
-      <c r="J1343" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1343" t="inlineStr"/>
       <c r="K1343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46674,9 +47260,7 @@
         <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
-      <c r="J1344" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1344" t="inlineStr"/>
       <c r="K1344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46713,9 +47297,7 @@
         <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
-      <c r="J1345" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1345" t="inlineStr"/>
       <c r="K1345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46752,9 +47334,7 @@
         <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
-      <c r="J1346" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1346" t="inlineStr"/>
       <c r="K1346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46791,9 +47371,7 @@
         <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
-      <c r="J1347" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1347" t="inlineStr"/>
       <c r="K1347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46827,12 +47405,12 @@
         <v>-1059413.230950884</v>
       </c>
       <c r="H1348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1348" t="inlineStr"/>
-      <c r="J1348" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="J1348" t="inlineStr"/>
       <c r="K1348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46866,12 +47444,12 @@
         <v>-1060812.790350884</v>
       </c>
       <c r="H1349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1349" t="inlineStr"/>
-      <c r="J1349" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>60.63</v>
+      </c>
+      <c r="J1349" t="inlineStr"/>
       <c r="K1349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46905,12 +47483,12 @@
         <v>-1060812.790350884</v>
       </c>
       <c r="H1350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1350" t="inlineStr"/>
-      <c r="J1350" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="J1350" t="inlineStr"/>
       <c r="K1350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46947,9 +47525,7 @@
         <v>0</v>
       </c>
       <c r="I1351" t="inlineStr"/>
-      <c r="J1351" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1351" t="inlineStr"/>
       <c r="K1351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46986,9 +47562,7 @@
         <v>0</v>
       </c>
       <c r="I1352" t="inlineStr"/>
-      <c r="J1352" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1352" t="inlineStr"/>
       <c r="K1352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47025,9 +47599,7 @@
         <v>0</v>
       </c>
       <c r="I1353" t="inlineStr"/>
-      <c r="J1353" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1353" t="inlineStr"/>
       <c r="K1353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47064,9 +47636,7 @@
         <v>0</v>
       </c>
       <c r="I1354" t="inlineStr"/>
-      <c r="J1354" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1354" t="inlineStr"/>
       <c r="K1354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47103,9 +47673,7 @@
         <v>0</v>
       </c>
       <c r="I1355" t="inlineStr"/>
-      <c r="J1355" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1355" t="inlineStr"/>
       <c r="K1355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47117,6 +47685,6 @@
       <c r="M1355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest IPX.xlsx
+++ b/BackTest/2020-01-22 BackTest IPX.xlsx
@@ -451,7 +451,7 @@
         <v>365678.636118666</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>385305.2970186661</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>399431.705918666</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>257573.3836010482</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>251960.2164010482</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>252659.9961010482</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>270890.5749010482</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>268736.2730010482</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>272235.1715010482</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>299140.1271010482</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>318291.6033010482</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>311265.7349010482</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>322043.3698462332</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>354696.1263010481</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>399162.2091010481</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>304871.6827010482</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>274628.3053010482</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>271774.5803010482</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>269675.2412010483</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>340212.2247010482</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>340212.2247010482</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>365110.4135010482</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>365110.4135010482</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>375689.5261010482</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>369702.9893010482</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>363885.8705010482</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>368393.2640010482</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>385033.0432010482</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>325188.1291010482</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>306890.3806010482</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>282849.0051010482</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>287124.6560010482</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>284237.5167010482</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>265313.6784010482</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>226397.8471010482</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-712640.4381081138</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-881875.9211176721</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-873252.0687176721</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-867606.3914176722</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-876073.7687176722</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-874770.8224176723</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-859203.3366176722</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-854182.9464176722</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-856295.2501176723</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-895483.7176176723</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-897951.5361176723</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-897951.5361176723</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-949174.7767176724</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-951364.9477176723</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-953924.8013176724</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-975190.6276176723</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-970944.8488176723</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-978977.7880176724</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-973354.4241176724</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-973354.4241176724</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-979843.1308176724</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-979843.1308176724</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-981955.5546176723</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-1027117.856917672</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-1023109.642717672</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-1135070.393217672</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-1136469.952617672</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-1150248.262517672</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-1150248.262517672</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-1147449.143717672</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-1147449.143717672</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-1148148.923417672</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -34672,11 +34672,17 @@
         <v>-1349842.848536915</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>59.57</v>
+      </c>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34705,11 +34711,17 @@
         <v>-1391789.455536915</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>59.26</v>
+      </c>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34738,11 +34750,17 @@
         <v>-1423990.281436915</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>59.19</v>
+      </c>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34771,11 +34789,17 @@
         <v>-1426105.674236915</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>59.14</v>
+      </c>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34804,11 +34828,17 @@
         <v>-1430089.991736915</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>59.13</v>
+      </c>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34842,10 +34872,12 @@
       <c r="I1044" t="n">
         <v>59.07</v>
       </c>
-      <c r="J1044" t="n">
-        <v>59.07</v>
-      </c>
-      <c r="K1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34879,12 +34911,10 @@
       <c r="I1045" t="n">
         <v>59.07</v>
       </c>
-      <c r="J1045" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1045" t="n">
@@ -34920,9 +34950,7 @@
       <c r="I1046" t="n">
         <v>59</v>
       </c>
-      <c r="J1046" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34961,9 +34989,7 @@
       <c r="I1047" t="n">
         <v>59.03</v>
       </c>
-      <c r="J1047" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35002,9 +35028,7 @@
       <c r="I1048" t="n">
         <v>59.2</v>
       </c>
-      <c r="J1048" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35043,9 +35067,7 @@
       <c r="I1049" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1049" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35084,9 +35106,7 @@
       <c r="I1050" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1050" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35125,9 +35145,7 @@
       <c r="I1051" t="n">
         <v>59.23</v>
       </c>
-      <c r="J1051" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35166,9 +35184,7 @@
       <c r="I1052" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1052" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35207,9 +35223,7 @@
       <c r="I1053" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1053" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35248,9 +35262,7 @@
       <c r="I1054" t="n">
         <v>59.39</v>
       </c>
-      <c r="J1054" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35289,9 +35301,7 @@
       <c r="I1055" t="n">
         <v>59.46</v>
       </c>
-      <c r="J1055" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35330,9 +35340,7 @@
       <c r="I1056" t="n">
         <v>59.37</v>
       </c>
-      <c r="J1056" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35371,9 +35379,7 @@
       <c r="I1057" t="n">
         <v>60</v>
       </c>
-      <c r="J1057" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35407,12 +35413,12 @@
         <v>-1319218.498636915</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35446,12 +35452,12 @@
         <v>-1327236.914436915</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>60.37</v>
+      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35488,9 +35494,7 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35527,9 +35531,7 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35566,9 +35568,7 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35605,9 +35605,7 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35644,9 +35642,7 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35683,9 +35679,7 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35722,9 +35716,7 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35761,9 +35753,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35800,9 +35790,7 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35839,9 +35827,7 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35878,9 +35864,7 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35917,9 +35901,7 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35956,9 +35938,7 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35995,9 +35975,7 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36034,9 +36012,7 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36073,9 +36049,7 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36112,9 +36086,7 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36151,9 +36123,7 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36190,9 +36160,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36229,9 +36197,7 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36268,9 +36234,7 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36307,9 +36271,7 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36346,9 +36308,7 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36385,9 +36345,7 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36424,9 +36382,7 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36463,9 +36419,7 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36502,9 +36456,7 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36541,9 +36493,7 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36580,9 +36530,7 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36619,9 +36567,7 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36658,9 +36604,7 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36697,9 +36641,7 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36736,9 +36678,7 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36775,9 +36715,7 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36814,9 +36752,7 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36853,9 +36789,7 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36892,9 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36931,9 +36863,7 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36970,9 +36900,7 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37009,9 +36937,7 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37048,9 +36974,7 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37087,9 +37011,7 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37126,9 +37048,7 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37165,9 +37085,7 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37204,9 +37122,7 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37243,9 +37159,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37282,9 +37196,7 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37321,9 +37233,7 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37360,9 +37270,7 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37399,9 +37307,7 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37438,9 +37344,7 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37477,9 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37516,9 +37418,7 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37555,9 +37455,7 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37594,9 +37492,7 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37633,9 +37529,7 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37672,9 +37566,7 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37711,9 +37603,7 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37750,9 +37640,7 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37789,9 +37677,7 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37828,9 +37714,7 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37867,9 +37751,7 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37906,9 +37788,7 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37945,9 +37825,7 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37984,9 +37862,7 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38023,9 +37899,7 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38062,9 +37936,7 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38101,9 +37973,7 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38140,9 +38010,7 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38179,9 +38047,7 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38218,9 +38084,7 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38257,9 +38121,7 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38296,9 +38158,7 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38335,9 +38195,7 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38374,9 +38232,7 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38413,9 +38269,7 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38452,9 +38306,7 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38491,9 +38343,7 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38530,9 +38380,7 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38566,14 +38414,10 @@
         <v>-1305529.940036915</v>
       </c>
       <c r="H1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="J1139" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38610,9 +38454,7 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38649,9 +38491,7 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38688,9 +38528,7 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38727,9 +38565,7 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38766,9 +38602,7 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38805,9 +38639,7 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38844,9 +38676,7 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38883,9 +38713,7 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38922,9 +38750,7 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38961,9 +38787,7 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39000,9 +38824,7 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39039,9 +38861,7 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39078,9 +38898,7 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39117,9 +38935,7 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39156,9 +38972,7 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39195,9 +39009,7 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39234,9 +39046,7 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39273,9 +39083,7 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39312,9 +39120,7 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39351,9 +39157,7 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39390,9 +39194,7 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39429,9 +39231,7 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39468,9 +39268,7 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39507,9 +39305,7 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39546,9 +39342,7 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39585,9 +39379,7 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39624,9 +39416,7 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39663,9 +39453,7 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39702,9 +39490,7 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39741,9 +39527,7 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39780,9 +39564,7 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39819,9 +39601,7 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39858,9 +39638,7 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39897,9 +39675,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39936,9 +39712,7 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39975,9 +39749,7 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40011,12 +39783,12 @@
         <v>-1472779.258836915</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40050,12 +39822,12 @@
         <v>-1474878.597936915</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40094,9 +39866,7 @@
       <c r="I1178" t="n">
         <v>59.23</v>
       </c>
-      <c r="J1178" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40135,9 +39905,7 @@
       <c r="I1179" t="n">
         <v>59.15</v>
       </c>
-      <c r="J1179" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40176,9 +39944,7 @@
       <c r="I1180" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1180" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40217,9 +39983,7 @@
       <c r="I1181" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1181" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40258,9 +40022,7 @@
       <c r="I1182" t="n">
         <v>59.15</v>
       </c>
-      <c r="J1182" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40299,9 +40061,7 @@
       <c r="I1183" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1183" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40340,9 +40100,7 @@
       <c r="I1184" t="n">
         <v>59.15</v>
       </c>
-      <c r="J1184" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40381,9 +40139,7 @@
       <c r="I1185" t="n">
         <v>59.32</v>
       </c>
-      <c r="J1185" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40422,9 +40178,7 @@
       <c r="I1186" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1186" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40463,9 +40217,7 @@
       <c r="I1187" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1187" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40504,9 +40256,7 @@
       <c r="I1188" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1188" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40545,9 +40295,7 @@
       <c r="I1189" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1189" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40586,9 +40334,7 @@
       <c r="I1190" t="n">
         <v>59.29</v>
       </c>
-      <c r="J1190" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40627,9 +40373,7 @@
       <c r="I1191" t="n">
         <v>59.13</v>
       </c>
-      <c r="J1191" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40668,9 +40412,7 @@
       <c r="I1192" t="n">
         <v>59.12</v>
       </c>
-      <c r="J1192" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40709,9 +40451,7 @@
       <c r="I1193" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1193" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40750,9 +40490,7 @@
       <c r="I1194" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1194" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40791,9 +40529,7 @@
       <c r="I1195" t="n">
         <v>59.29</v>
       </c>
-      <c r="J1195" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40832,9 +40568,7 @@
       <c r="I1196" t="n">
         <v>59.27</v>
       </c>
-      <c r="J1196" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40873,9 +40607,7 @@
       <c r="I1197" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1197" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40914,9 +40646,7 @@
       <c r="I1198" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1198" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40955,9 +40685,7 @@
       <c r="I1199" t="n">
         <v>59.27</v>
       </c>
-      <c r="J1199" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40996,9 +40724,7 @@
       <c r="I1200" t="n">
         <v>59.29</v>
       </c>
-      <c r="J1200" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41037,9 +40763,7 @@
       <c r="I1201" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1201" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41078,9 +40802,7 @@
       <c r="I1202" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1202" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41119,9 +40841,7 @@
       <c r="I1203" t="n">
         <v>59.28</v>
       </c>
-      <c r="J1203" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41160,9 +40880,7 @@
       <c r="I1204" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1204" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41201,9 +40919,7 @@
       <c r="I1205" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1205" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41242,9 +40958,7 @@
       <c r="I1206" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1206" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41283,9 +40997,7 @@
       <c r="I1207" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1207" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41324,9 +41036,7 @@
       <c r="I1208" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1208" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41365,9 +41075,7 @@
       <c r="I1209" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1209" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41406,9 +41114,7 @@
       <c r="I1210" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1210" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41447,9 +41153,7 @@
       <c r="I1211" t="n">
         <v>59.32</v>
       </c>
-      <c r="J1211" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41488,9 +41192,7 @@
       <c r="I1212" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1212" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41529,9 +41231,7 @@
       <c r="I1213" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1213" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41570,9 +41270,7 @@
       <c r="I1214" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1214" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41611,9 +41309,7 @@
       <c r="I1215" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1215" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41652,9 +41348,7 @@
       <c r="I1216" t="n">
         <v>59.14</v>
       </c>
-      <c r="J1216" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41693,9 +41387,7 @@
       <c r="I1217" t="n">
         <v>59.13</v>
       </c>
-      <c r="J1217" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41734,9 +41426,7 @@
       <c r="I1218" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1218" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41775,9 +41465,7 @@
       <c r="I1219" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1219" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41816,9 +41504,7 @@
       <c r="I1220" t="n">
         <v>59.16</v>
       </c>
-      <c r="J1220" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41857,9 +41543,7 @@
       <c r="I1221" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1221" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41898,9 +41582,7 @@
       <c r="I1222" t="n">
         <v>59.16</v>
       </c>
-      <c r="J1222" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41939,9 +41621,7 @@
       <c r="I1223" t="n">
         <v>59.32</v>
       </c>
-      <c r="J1223" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41980,9 +41660,7 @@
       <c r="I1224" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1224" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42021,9 +41699,7 @@
       <c r="I1225" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1225" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42062,9 +41738,7 @@
       <c r="I1226" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1226" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42103,9 +41777,7 @@
       <c r="I1227" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1227" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42144,9 +41816,7 @@
       <c r="I1228" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1228" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42185,9 +41855,7 @@
       <c r="I1229" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1229" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42226,9 +41894,7 @@
       <c r="I1230" t="n">
         <v>59.32</v>
       </c>
-      <c r="J1230" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42267,9 +41933,7 @@
       <c r="I1231" t="n">
         <v>59.32</v>
       </c>
-      <c r="J1231" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42308,9 +41972,7 @@
       <c r="I1232" t="n">
         <v>59.33</v>
       </c>
-      <c r="J1232" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42349,9 +42011,7 @@
       <c r="I1233" t="n">
         <v>59.32</v>
       </c>
-      <c r="J1233" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42390,9 +42050,7 @@
       <c r="I1234" t="n">
         <v>59.31</v>
       </c>
-      <c r="J1234" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42431,9 +42089,7 @@
       <c r="I1235" t="n">
         <v>59.3</v>
       </c>
-      <c r="J1235" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42472,9 +42128,7 @@
       <c r="I1236" t="n">
         <v>59.23</v>
       </c>
-      <c r="J1236" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42513,9 +42167,7 @@
       <c r="I1237" t="n">
         <v>59.37</v>
       </c>
-      <c r="J1237" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42554,9 +42206,7 @@
       <c r="I1238" t="n">
         <v>59.23</v>
       </c>
-      <c r="J1238" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42595,9 +42245,7 @@
       <c r="I1239" t="n">
         <v>59.17</v>
       </c>
-      <c r="J1239" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42636,9 +42284,7 @@
       <c r="I1240" t="n">
         <v>59.22</v>
       </c>
-      <c r="J1240" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42677,9 +42323,7 @@
       <c r="I1241" t="n">
         <v>59.24</v>
       </c>
-      <c r="J1241" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42718,9 +42362,7 @@
       <c r="I1242" t="n">
         <v>59.35</v>
       </c>
-      <c r="J1242" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42759,9 +42401,7 @@
       <c r="I1243" t="n">
         <v>59.24</v>
       </c>
-      <c r="J1243" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42800,9 +42440,7 @@
       <c r="I1244" t="n">
         <v>59.24</v>
       </c>
-      <c r="J1244" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42841,9 +42479,7 @@
       <c r="I1245" t="n">
         <v>59.24</v>
       </c>
-      <c r="J1245" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42882,9 +42518,7 @@
       <c r="I1246" t="n">
         <v>59.35</v>
       </c>
-      <c r="J1246" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42923,9 +42557,7 @@
       <c r="I1247" t="n">
         <v>59.25</v>
       </c>
-      <c r="J1247" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42964,9 +42596,7 @@
       <c r="I1248" t="n">
         <v>59.16</v>
       </c>
-      <c r="J1248" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43005,9 +42635,7 @@
       <c r="I1249" t="n">
         <v>59.16</v>
       </c>
-      <c r="J1249" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43046,9 +42674,7 @@
       <c r="I1250" t="n">
         <v>59.25</v>
       </c>
-      <c r="J1250" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43087,9 +42713,7 @@
       <c r="I1251" t="n">
         <v>59.24</v>
       </c>
-      <c r="J1251" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43128,9 +42752,7 @@
       <c r="I1252" t="n">
         <v>59.25</v>
       </c>
-      <c r="J1252" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43169,9 +42791,7 @@
       <c r="I1253" t="n">
         <v>59.34</v>
       </c>
-      <c r="J1253" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43210,9 +42830,7 @@
       <c r="I1254" t="n">
         <v>59.34</v>
       </c>
-      <c r="J1254" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43251,9 +42869,7 @@
       <c r="I1255" t="n">
         <v>59.34</v>
       </c>
-      <c r="J1255" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43292,9 +42908,7 @@
       <c r="I1256" t="n">
         <v>59.35</v>
       </c>
-      <c r="J1256" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43333,9 +42947,7 @@
       <c r="I1257" t="n">
         <v>59.45</v>
       </c>
-      <c r="J1257" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43374,9 +42986,7 @@
       <c r="I1258" t="n">
         <v>59.57</v>
       </c>
-      <c r="J1258" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43415,9 +43025,7 @@
       <c r="I1259" t="n">
         <v>59.65</v>
       </c>
-      <c r="J1259" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43456,9 +43064,7 @@
       <c r="I1260" t="n">
         <v>59.66</v>
       </c>
-      <c r="J1260" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43497,9 +43103,7 @@
       <c r="I1261" t="n">
         <v>59.67</v>
       </c>
-      <c r="J1261" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43538,9 +43142,7 @@
       <c r="I1262" t="n">
         <v>59.65</v>
       </c>
-      <c r="J1262" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43579,9 +43181,7 @@
       <c r="I1263" t="n">
         <v>59.66</v>
       </c>
-      <c r="J1263" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43615,14 +43215,10 @@
         <v>-1282747.701636914</v>
       </c>
       <c r="H1264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>59.64</v>
-      </c>
-      <c r="J1264" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43656,14 +43252,10 @@
         <v>-1270569.045936914</v>
       </c>
       <c r="H1265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1265" t="n">
-        <v>59.64</v>
-      </c>
-      <c r="J1265" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1265" t="inlineStr"/>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43700,9 +43292,7 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43739,9 +43329,7 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43778,9 +43366,7 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43817,9 +43403,7 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43856,9 +43440,7 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43895,9 +43477,7 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43934,9 +43514,7 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43973,9 +43551,7 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44012,9 +43588,7 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44051,9 +43625,7 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44090,9 +43662,7 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44129,9 +43699,7 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44168,9 +43736,7 @@
         <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44207,9 +43773,7 @@
         <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
-      <c r="J1279" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44246,9 +43810,7 @@
         <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44285,9 +43847,7 @@
         <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44324,9 +43884,7 @@
         <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44363,9 +43921,7 @@
         <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44402,9 +43958,7 @@
         <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
-      <c r="J1284" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44441,9 +43995,7 @@
         <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
-      <c r="J1285" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44480,9 +44032,7 @@
         <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
-      <c r="J1286" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44519,9 +44069,7 @@
         <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
-      <c r="J1287" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44558,9 +44106,7 @@
         <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
-      <c r="J1288" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44597,9 +44143,7 @@
         <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44633,12 +44177,12 @@
         <v>-1375619.798736914</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>59.69</v>
+      </c>
+      <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44672,12 +44216,12 @@
         <v>-1377719.137836914</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1291" t="inlineStr"/>
-      <c r="J1291" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44711,12 +44255,12 @@
         <v>-1383406.602436914</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44750,12 +44294,12 @@
         <v>-1379907.703936914</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1293" t="inlineStr"/>
-      <c r="J1293" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>59.46</v>
+      </c>
+      <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44789,12 +44333,12 @@
         <v>-1377763.676236914</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1294" t="inlineStr"/>
-      <c r="J1294" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44828,12 +44372,12 @@
         <v>-1380562.795036914</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J1295" t="inlineStr"/>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44867,12 +44411,12 @@
         <v>-1382662.134136914</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1296" t="inlineStr"/>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44906,12 +44450,12 @@
         <v>-1382662.134136914</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1297" t="inlineStr"/>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44945,12 +44489,12 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="J1298" t="inlineStr"/>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44984,12 +44528,12 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1299" t="inlineStr"/>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45023,12 +44567,12 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45062,12 +44606,12 @@
         <v>-1384010.517636914</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="J1301" t="inlineStr"/>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45101,12 +44645,12 @@
         <v>-1381917.154936914</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="J1302" t="inlineStr"/>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45145,9 +44689,7 @@
       <c r="I1303" t="n">
         <v>59.68</v>
       </c>
-      <c r="J1303" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45181,12 +44723,12 @@
         <v>-1379109.673236914</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="n">
-        <v>59.07</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="J1304" t="inlineStr"/>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45225,9 +44767,7 @@
       <c r="I1305" t="n">
         <v>59.67</v>
       </c>
-      <c r="J1305" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45266,9 +44806,7 @@
       <c r="I1306" t="n">
         <v>59.67</v>
       </c>
-      <c r="J1306" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45307,9 +44845,7 @@
       <c r="I1307" t="n">
         <v>59.88</v>
       </c>
-      <c r="J1307" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45348,9 +44884,7 @@
       <c r="I1308" t="n">
         <v>59.7</v>
       </c>
-      <c r="J1308" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45389,9 +44923,7 @@
       <c r="I1309" t="n">
         <v>59.88</v>
       </c>
-      <c r="J1309" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45430,9 +44962,7 @@
       <c r="I1310" t="n">
         <v>59.67</v>
       </c>
-      <c r="J1310" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45471,9 +45001,7 @@
       <c r="I1311" t="n">
         <v>59.77</v>
       </c>
-      <c r="J1311" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45512,9 +45040,7 @@
       <c r="I1312" t="n">
         <v>59.77</v>
       </c>
-      <c r="J1312" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45553,9 +45079,7 @@
       <c r="I1313" t="n">
         <v>59.77</v>
       </c>
-      <c r="J1313" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45594,9 +45118,7 @@
       <c r="I1314" t="n">
         <v>59.68</v>
       </c>
-      <c r="J1314" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45635,9 +45157,7 @@
       <c r="I1315" t="n">
         <v>59.69</v>
       </c>
-      <c r="J1315" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45676,9 +45196,7 @@
       <c r="I1316" t="n">
         <v>59.58</v>
       </c>
-      <c r="J1316" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45717,9 +45235,7 @@
       <c r="I1317" t="n">
         <v>59.68</v>
       </c>
-      <c r="J1317" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45758,9 +45274,7 @@
       <c r="I1318" t="n">
         <v>59.67</v>
       </c>
-      <c r="J1318" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45799,9 +45313,7 @@
       <c r="I1319" t="n">
         <v>59.73</v>
       </c>
-      <c r="J1319" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45840,9 +45352,7 @@
       <c r="I1320" t="n">
         <v>59.85</v>
       </c>
-      <c r="J1320" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45881,9 +45391,7 @@
       <c r="I1321" t="n">
         <v>59.95</v>
       </c>
-      <c r="J1321" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45917,14 +45425,10 @@
         <v>-1299944.546236915</v>
       </c>
       <c r="H1322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1322" t="n">
-        <v>59.97</v>
-      </c>
-      <c r="J1322" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1322" t="inlineStr"/>
+      <c r="J1322" t="inlineStr"/>
       <c r="K1322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45958,14 +45462,10 @@
         <v>-1302043.885336915</v>
       </c>
       <c r="H1323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1323" t="n">
-        <v>59.82</v>
-      </c>
-      <c r="J1323" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1323" t="inlineStr"/>
+      <c r="J1323" t="inlineStr"/>
       <c r="K1323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45999,14 +45499,10 @@
         <v>-1300644.325936915</v>
       </c>
       <c r="H1324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1324" t="n">
-        <v>59.81</v>
-      </c>
-      <c r="J1324" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1324" t="inlineStr"/>
+      <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46040,14 +45536,10 @@
         <v>-1285935.634236915</v>
       </c>
       <c r="H1325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1325" t="n">
-        <v>59.83</v>
-      </c>
-      <c r="J1325" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1325" t="inlineStr"/>
+      <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46081,14 +45573,10 @@
         <v>-1290181.438336915</v>
       </c>
       <c r="H1326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1326" t="n">
-        <v>60.07</v>
-      </c>
-      <c r="J1326" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1326" t="inlineStr"/>
+      <c r="J1326" t="inlineStr"/>
       <c r="K1326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46122,14 +45610,10 @@
         <v>-1290181.438336915</v>
       </c>
       <c r="H1327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1327" t="n">
-        <v>59.91</v>
-      </c>
-      <c r="J1327" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1327" t="inlineStr"/>
+      <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46163,14 +45647,10 @@
         <v>-1276972.099236915</v>
       </c>
       <c r="H1328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1328" t="n">
-        <v>59.91</v>
-      </c>
-      <c r="J1328" t="n">
-        <v>59.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1328" t="inlineStr"/>
+      <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46207,9 +45687,7 @@
         <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
-      <c r="J1329" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1329" t="inlineStr"/>
       <c r="K1329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46246,9 +45724,7 @@
         <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
-      <c r="J1330" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1330" t="inlineStr"/>
       <c r="K1330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46285,9 +45761,7 @@
         <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
-      <c r="J1331" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1331" t="inlineStr"/>
       <c r="K1331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46324,9 +45798,7 @@
         <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
-      <c r="J1332" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46363,9 +45835,7 @@
         <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1333" t="inlineStr"/>
       <c r="K1333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46402,9 +45872,7 @@
         <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
-      <c r="J1334" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1334" t="inlineStr"/>
       <c r="K1334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46441,9 +45909,7 @@
         <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
-      <c r="J1335" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1335" t="inlineStr"/>
       <c r="K1335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46480,9 +45946,7 @@
         <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
-      <c r="J1336" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1336" t="inlineStr"/>
       <c r="K1336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46519,9 +45983,7 @@
         <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
-      <c r="J1337" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1337" t="inlineStr"/>
       <c r="K1337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46558,9 +46020,7 @@
         <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
-      <c r="J1338" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1338" t="inlineStr"/>
       <c r="K1338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46597,9 +46057,7 @@
         <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
-      <c r="J1339" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1339" t="inlineStr"/>
       <c r="K1339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46636,9 +46094,7 @@
         <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
-      <c r="J1340" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1340" t="inlineStr"/>
       <c r="K1340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46675,9 +46131,7 @@
         <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
-      <c r="J1341" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1341" t="inlineStr"/>
       <c r="K1341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46714,9 +46168,7 @@
         <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
-      <c r="J1342" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1342" t="inlineStr"/>
       <c r="K1342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46753,9 +46205,7 @@
         <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
-      <c r="J1343" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1343" t="inlineStr"/>
       <c r="K1343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46792,9 +46242,7 @@
         <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
-      <c r="J1344" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1344" t="inlineStr"/>
       <c r="K1344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46831,9 +46279,7 @@
         <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
-      <c r="J1345" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1345" t="inlineStr"/>
       <c r="K1345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46870,9 +46316,7 @@
         <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
-      <c r="J1346" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1346" t="inlineStr"/>
       <c r="K1346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46909,9 +46353,7 @@
         <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
-      <c r="J1347" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1347" t="inlineStr"/>
       <c r="K1347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46948,9 +46390,7 @@
         <v>0</v>
       </c>
       <c r="I1348" t="inlineStr"/>
-      <c r="J1348" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1348" t="inlineStr"/>
       <c r="K1348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46987,9 +46427,7 @@
         <v>0</v>
       </c>
       <c r="I1349" t="inlineStr"/>
-      <c r="J1349" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1349" t="inlineStr"/>
       <c r="K1349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47026,9 +46464,7 @@
         <v>0</v>
       </c>
       <c r="I1350" t="inlineStr"/>
-      <c r="J1350" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1350" t="inlineStr"/>
       <c r="K1350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47065,9 +46501,7 @@
         <v>0</v>
       </c>
       <c r="I1351" t="inlineStr"/>
-      <c r="J1351" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1351" t="inlineStr"/>
       <c r="K1351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47104,9 +46538,7 @@
         <v>0</v>
       </c>
       <c r="I1352" t="inlineStr"/>
-      <c r="J1352" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1352" t="inlineStr"/>
       <c r="K1352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47143,9 +46575,7 @@
         <v>0</v>
       </c>
       <c r="I1353" t="inlineStr"/>
-      <c r="J1353" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1353" t="inlineStr"/>
       <c r="K1353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47182,9 +46612,7 @@
         <v>0</v>
       </c>
       <c r="I1354" t="inlineStr"/>
-      <c r="J1354" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1354" t="inlineStr"/>
       <c r="K1354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47221,9 +46649,7 @@
         <v>0</v>
       </c>
       <c r="I1355" t="inlineStr"/>
-      <c r="J1355" t="n">
-        <v>59.07</v>
-      </c>
+      <c r="J1355" t="inlineStr"/>
       <c r="K1355" t="inlineStr">
         <is>
           <t>매도 대기</t>
